--- a/app/data/static/params/cream_cheese.xlsx
+++ b/app/data/static/params/cream_cheese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1698,6 +1698,68 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Кремчиз "ВкусВилл", 70%, 0,2 кг, пл/с</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>70</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Кремчиз</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Маскарпоне</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>450</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>252</v>
+      </c>
+      <c r="N21" t="n">
+        <v>60</v>
+      </c>
+      <c r="O21" t="n">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Н0000098693</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/static/params/cream_cheese.xlsx
+++ b/app/data/static/params/cream_cheese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1698,68 +1698,6 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Кремчиз "ВкусВилл", 70%, 0,2 кг, пл/с</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>70</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Кремчиз</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Маскарпоне</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>450</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>252</v>
-      </c>
-      <c r="N21" t="n">
-        <v>60</v>
-      </c>
-      <c r="O21" t="n">
-        <v>60</v>
-      </c>
-      <c r="P21" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>10</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Н0000098693</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
